--- a/po.xlsx
+++ b/po.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>poNo</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>po end date</t>
-  </si>
-  <si>
-    <t>17/6/2021</t>
-  </si>
-  <si>
-    <t>17/7/2021</t>
   </si>
 </sst>
 </file>
@@ -83,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -422,11 +417,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>44393</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44393</v>
       </c>
     </row>
   </sheetData>
